--- a/Timesheets/zxia2.xlsx
+++ b/Timesheets/zxia2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Name_______________________________________________________</t>
   </si>
@@ -57,6 +57,54 @@
   </si>
   <si>
     <t>Career Services Registeration</t>
+  </si>
+  <si>
+    <t>1:00/2:00 pm</t>
+  </si>
+  <si>
+    <t>6:00/7:00pm</t>
+  </si>
+  <si>
+    <t>Email, checking, researching, bunch stuff around this time</t>
+  </si>
+  <si>
+    <t>6:00/6:30pm</t>
+  </si>
+  <si>
+    <t>Researching mySQL</t>
+  </si>
+  <si>
+    <t>8:00/8:30pm</t>
+  </si>
+  <si>
+    <t>Research and reading</t>
+  </si>
+  <si>
+    <t>3:00/3:30pm</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>4:00/4:45pm</t>
+  </si>
+  <si>
+    <t>5:00/5:45pm</t>
+  </si>
+  <si>
+    <t>Research, looking over mySQL tools</t>
+  </si>
+  <si>
+    <t>Research, reading, checking stuff, C# front end</t>
+  </si>
+  <si>
+    <t>6:00/6:45pm</t>
+  </si>
+  <si>
+    <t>Studying over mySQL</t>
+  </si>
+  <si>
+    <t>7:00/7:30pm</t>
   </si>
 </sst>
 </file>
@@ -465,7 +513,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,58 +588,130 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="6">
+        <v>42123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="6">
+        <v>42125</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="6">
+        <v>42126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="6">
+        <v>42126</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="6">
+        <v>42127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="6">
+        <v>42127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="6">
+        <v>42127</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="6">
+        <v>42127</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="6">
+        <v>42127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
